--- a/wdc_libs/data-examples/wdc_example.xlsx
+++ b/wdc_libs/data-examples/wdc_example.xlsx
@@ -844,12 +844,6 @@
     <t>dataset.id</t>
   </si>
   <si>
-    <t>dataset.visibility</t>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
     <t>dataset.commit.id</t>
   </si>
   <si>
@@ -1069,6 +1063,12 @@
   </si>
   <si>
     <t>https://www.alcatel-lucent.com/sites/live/files/sustainability/content/digital-inclusion-icon-131x136.png</t>
+  </si>
+  <si>
+    <t>dataset.status</t>
+  </si>
+  <si>
+    <t>private</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1537,7 @@
         <v>247</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -17790,8 +17790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17813,20 +17813,20 @@
         <v>274</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>275</v>
+        <v>348</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B4" s="5">
         <v>1112322212</v>
@@ -17834,144 +17834,144 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B7" s="6">
         <f ca="1">TODAY()</f>
-        <v>42339</v>
+        <v>42341</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B22" t="s">
         <v>249</v>
@@ -17979,7 +17979,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B23" t="s">
         <v>248</v>
@@ -17987,7 +17987,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B24" t="s">
         <v>250</v>
@@ -17995,7 +17995,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B25" t="s">
         <v>247</v>
@@ -18003,7 +18003,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>246</v>
@@ -18011,7 +18011,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>246</v>
@@ -18127,90 +18127,90 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>313</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -18258,73 +18258,73 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" t="s">
         <v>319</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>320</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>321</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>322</v>
-      </c>
-      <c r="E2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" t="s">
         <v>329</v>
-      </c>
-      <c r="B3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E4" t="s">
         <v>334</v>
-      </c>
-      <c r="B4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/wdc_libs/data-examples/wdc_example.xlsx
+++ b/wdc_libs/data-examples/wdc_example.xlsx
@@ -1011,9 +1011,6 @@
     <t>http://www.iisd.ca/_img/km/knowledge/icon_sustainable-development_225.png</t>
   </si>
   <si>
-    <t>#SDI_TOPIC/#EC, #SDI_TOPIC/#ECO, #SDI_TOPIC/#S, #Cql, #Csl,#G,#Ie, #Iec,#Is, #Isd</t>
-  </si>
-  <si>
     <t>34aae7a0-9841-11e5-af8b-0f645ae28e38</t>
   </si>
   <si>
@@ -1069,6 +1066,9 @@
   </si>
   <si>
     <t>private</t>
+  </si>
+  <si>
+    <t>#SDI_TOPIC/#EC, #SDI_TOPIC/#ECO, #SDI_TOPIC/#S, #Cql, #Csl,#G,#Ie, #Iec,#Is, #Isd,That's all folks</t>
   </si>
 </sst>
 </file>
@@ -17791,7 +17791,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17813,15 +17813,15 @@
         <v>274</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -17854,7 +17854,7 @@
       </c>
       <c r="B7" s="6">
         <f ca="1">TODAY()</f>
-        <v>42341</v>
+        <v>42367</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -17902,7 +17902,7 @@
         <v>288</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -18171,46 +18171,46 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -18295,36 +18295,36 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
         <v>328</v>
       </c>
       <c r="C4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" t="s">
         <v>335</v>
       </c>
-      <c r="D4" t="s">
-        <v>336</v>
-      </c>
       <c r="E4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
         <v>328</v>
       </c>
       <c r="C5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" t="s">
         <v>337</v>
       </c>
-      <c r="D5" t="s">
-        <v>338</v>
-      </c>
       <c r="E5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
